--- a/manuscript/S1_scanned_batches.xlsx
+++ b/manuscript/S1_scanned_batches.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,27 +50,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A total of 1301 invidual walnuts were scanned using a 3D X-ray CT scanner at Michigan State University. The walnuts were arranged into 172 batches consisting of 5 to 9 individuals. They represent a total of 150 different accessions, denoted by their UCACCSD identifier. Individuals with empty kernels were discarded from further analyses. The number of  preserved individuals is listed at the rightmost column.</t>
-    </r>
+    <t xml:space="preserve">Table S1. A total of 1301 invidual walnuts were scanned using a 3D X-ray CT scanner at Michigan State University. The walnuts were arranged into 172 batches consisting of 5 to 9 individuals. They represent a total of 150 different accessions, denoted by their UCACCSD identifier. Individuals with empty kernels were discarded from further analyses. The number of  preserved individual nuts from each batch scan is listed at the rightmost column.</t>
   </si>
   <si>
     <t xml:space="preserve">Scan Number</t>
@@ -1083,11 +1063,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1116,6 +1097,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1162,7 +1150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,8 +1163,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1198,11 +1198,11 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="91.93"/>
   </cols>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="60.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1225,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1240,43 +1240,43 @@
   </sheetPr>
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1287,16 +1287,16 @@
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -1313,16 +1313,16 @@
       <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -1339,16 +1339,16 @@
       <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -1365,16 +1365,16 @@
       <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -1391,16 +1391,16 @@
       <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="0" t="n">
@@ -1417,16 +1417,16 @@
       <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -1443,16 +1443,16 @@
       <c r="B8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -1469,16 +1469,16 @@
       <c r="B9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -1495,16 +1495,16 @@
       <c r="B10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -1521,16 +1521,16 @@
       <c r="B11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -1547,16 +1547,16 @@
       <c r="B12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="0" t="n">
@@ -1573,16 +1573,16 @@
       <c r="B13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -1599,16 +1599,16 @@
       <c r="B14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -1625,16 +1625,16 @@
       <c r="B15" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -1651,16 +1651,16 @@
       <c r="B16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -1677,16 +1677,16 @@
       <c r="B17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -1703,16 +1703,16 @@
       <c r="B18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -1729,16 +1729,16 @@
       <c r="B19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -1755,16 +1755,16 @@
       <c r="B20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="0" t="n">
@@ -1781,16 +1781,16 @@
       <c r="B21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="0" t="n">
@@ -1807,16 +1807,16 @@
       <c r="B22" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="0" t="n">
@@ -1833,16 +1833,16 @@
       <c r="B23" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="0" t="n">
@@ -1859,16 +1859,16 @@
       <c r="B24" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="0" t="n">
@@ -1885,16 +1885,16 @@
       <c r="B25" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="0" t="n">
@@ -1911,16 +1911,16 @@
       <c r="B26" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="0" t="n">
@@ -1937,16 +1937,16 @@
       <c r="B27" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="0" t="n">
@@ -1963,16 +1963,16 @@
       <c r="B28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="0" t="n">
@@ -1989,16 +1989,16 @@
       <c r="B29" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="0" t="n">
@@ -2015,16 +2015,16 @@
       <c r="B30" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G30" s="0" t="n">
@@ -2041,16 +2041,16 @@
       <c r="B31" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G31" s="0" t="n">
@@ -2067,16 +2067,16 @@
       <c r="B32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G32" s="0" t="n">
@@ -2093,16 +2093,16 @@
       <c r="B33" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="0" t="n">
@@ -2119,16 +2119,16 @@
       <c r="B34" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G34" s="0" t="n">
@@ -2145,16 +2145,16 @@
       <c r="B35" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G35" s="0" t="n">
@@ -2171,16 +2171,16 @@
       <c r="B36" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G36" s="0" t="n">
@@ -2197,16 +2197,16 @@
       <c r="B37" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G37" s="0" t="n">
@@ -2223,16 +2223,16 @@
       <c r="B38" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G38" s="0" t="n">
@@ -2249,16 +2249,16 @@
       <c r="B39" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F39" s="0" t="s">
+      <c r="D39" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G39" s="0" t="n">
@@ -2275,16 +2275,16 @@
       <c r="B40" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="D40" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G40" s="0" t="n">
@@ -2301,16 +2301,16 @@
       <c r="B41" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="0" t="n">
@@ -2327,16 +2327,16 @@
       <c r="B42" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G42" s="0" t="n">
@@ -2353,16 +2353,16 @@
       <c r="B43" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G43" s="0" t="n">
@@ -2379,16 +2379,16 @@
       <c r="B44" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G44" s="0" t="n">
@@ -2405,16 +2405,16 @@
       <c r="B45" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="0" t="n">
+      <c r="C45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="0" t="n">
@@ -2431,16 +2431,16 @@
       <c r="B46" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="0" t="n">
+      <c r="C46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G46" s="0" t="n">
@@ -2457,16 +2457,16 @@
       <c r="B47" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="0" t="n">
+      <c r="C47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G47" s="0" t="n">
@@ -2483,16 +2483,16 @@
       <c r="B48" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="0" t="n">
+      <c r="C48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G48" s="0" t="n">
@@ -2509,16 +2509,16 @@
       <c r="B49" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="0" t="n">
+      <c r="C49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G49" s="0" t="n">
@@ -2535,16 +2535,16 @@
       <c r="B50" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="0" t="n">
+      <c r="C50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G50" s="0" t="n">
@@ -2561,16 +2561,16 @@
       <c r="B51" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="0" t="n">
+      <c r="C51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G51" s="0" t="n">
@@ -2587,16 +2587,16 @@
       <c r="B52" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="0" t="n">
+      <c r="C52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="4" t="s">
         <v>119</v>
       </c>
       <c r="G52" s="0" t="n">
@@ -2613,16 +2613,16 @@
       <c r="B53" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="0" t="n">
+      <c r="C53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="4" t="s">
         <v>121</v>
       </c>
       <c r="G53" s="0" t="n">
@@ -2639,16 +2639,16 @@
       <c r="B54" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="0" t="n">
+      <c r="C54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G54" s="0" t="n">
@@ -2665,16 +2665,16 @@
       <c r="B55" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="0" t="n">
+      <c r="C55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G55" s="0" t="n">
@@ -2691,16 +2691,16 @@
       <c r="B56" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="0" t="n">
+      <c r="C56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="0" t="n">
@@ -2717,16 +2717,16 @@
       <c r="B57" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="0" t="n">
+      <c r="C57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G57" s="0" t="n">
@@ -2743,16 +2743,16 @@
       <c r="B58" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="0" t="n">
+      <c r="C58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G58" s="0" t="n">
@@ -2769,16 +2769,16 @@
       <c r="B59" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="0" t="n">
+      <c r="C59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G59" s="0" t="n">
@@ -2795,16 +2795,16 @@
       <c r="B60" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="0" t="n">
+      <c r="C60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G60" s="0" t="n">
@@ -2821,16 +2821,16 @@
       <c r="B61" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="0" t="n">
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G61" s="0" t="n">
@@ -2847,16 +2847,16 @@
       <c r="B62" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="0" t="n">
+      <c r="C62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G62" s="0" t="n">
@@ -2873,16 +2873,16 @@
       <c r="B63" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="0" t="n">
+      <c r="C63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G63" s="0" t="n">
@@ -2899,16 +2899,16 @@
       <c r="B64" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="C64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F64" s="0" t="s">
+      <c r="E64" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G64" s="0" t="n">
@@ -2925,16 +2925,16 @@
       <c r="B65" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="0" t="n">
+      <c r="C65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G65" s="0" t="n">
@@ -2951,16 +2951,16 @@
       <c r="B66" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="0" t="n">
+      <c r="C66" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="E66" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>147</v>
       </c>
       <c r="G66" s="0" t="n">
@@ -2977,16 +2977,16 @@
       <c r="B67" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="0" t="n">
+      <c r="C67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F67" s="0" t="s">
+      <c r="E67" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G67" s="0" t="n">
@@ -3003,16 +3003,16 @@
       <c r="B68" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="0" t="n">
+      <c r="C68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G68" s="0" t="n">
@@ -3029,16 +3029,16 @@
       <c r="B69" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="0" t="n">
+      <c r="C69" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G69" s="0" t="n">
@@ -3055,16 +3055,16 @@
       <c r="B70" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="0" t="n">
+      <c r="C70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="4" t="s">
         <v>155</v>
       </c>
       <c r="G70" s="0" t="n">
@@ -3081,16 +3081,16 @@
       <c r="B71" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="C71" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G71" s="0" t="n">
@@ -3107,16 +3107,16 @@
       <c r="B72" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="C72" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="4" t="s">
         <v>159</v>
       </c>
       <c r="G72" s="0" t="n">
@@ -3133,16 +3133,16 @@
       <c r="B73" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E73" s="0" t="n">
+      <c r="C73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G73" s="0" t="n">
@@ -3159,16 +3159,16 @@
       <c r="B74" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E74" s="0" t="n">
+      <c r="C74" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G74" s="0" t="n">
@@ -3185,16 +3185,16 @@
       <c r="B75" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E75" s="0" t="n">
+      <c r="C75" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G75" s="0" t="n">
@@ -3211,16 +3211,16 @@
       <c r="B76" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E76" s="0" t="n">
+      <c r="C76" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G76" s="0" t="n">
@@ -3237,16 +3237,16 @@
       <c r="B77" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" s="0" t="n">
+      <c r="C77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G77" s="0" t="n">
@@ -3263,16 +3263,16 @@
       <c r="B78" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E78" s="0" t="n">
+      <c r="C78" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G78" s="0" t="n">
@@ -3289,16 +3289,16 @@
       <c r="B79" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E79" s="0" t="n">
+      <c r="C79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G79" s="0" t="n">
@@ -3315,16 +3315,16 @@
       <c r="B80" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E80" s="0" t="n">
+      <c r="C80" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="4" t="s">
         <v>175</v>
       </c>
       <c r="G80" s="0" t="n">
@@ -3341,16 +3341,16 @@
       <c r="B81" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="C81" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G81" s="0" t="n">
@@ -3367,16 +3367,16 @@
       <c r="B82" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="C82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G82" s="0" t="n">
@@ -3393,16 +3393,16 @@
       <c r="B83" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E83" s="0" t="n">
+      <c r="C83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G83" s="0" t="n">
@@ -3419,16 +3419,16 @@
       <c r="B84" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E84" s="0" t="n">
+      <c r="C84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="4" t="s">
         <v>183</v>
       </c>
       <c r="G84" s="0" t="n">
@@ -3445,16 +3445,16 @@
       <c r="B85" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E85" s="0" t="n">
+      <c r="C85" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="4" t="s">
         <v>185</v>
       </c>
       <c r="G85" s="0" t="n">
@@ -3471,16 +3471,16 @@
       <c r="B86" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E86" s="0" t="n">
+      <c r="C86" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G86" s="0" t="n">
@@ -3497,16 +3497,16 @@
       <c r="B87" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E87" s="0" t="n">
+      <c r="C87" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" s="4" t="s">
         <v>189</v>
       </c>
       <c r="G87" s="0" t="n">
@@ -3523,16 +3523,16 @@
       <c r="B88" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E88" s="0" t="n">
+      <c r="C88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G88" s="0" t="n">
@@ -3549,16 +3549,16 @@
       <c r="B89" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E89" s="0" t="n">
+      <c r="C89" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="4" t="s">
         <v>193</v>
       </c>
       <c r="G89" s="0" t="n">
@@ -3575,16 +3575,16 @@
       <c r="B90" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E90" s="0" t="n">
+      <c r="C90" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G90" s="0" t="n">
@@ -3601,16 +3601,16 @@
       <c r="B91" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E91" s="0" t="n">
+      <c r="C91" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G91" s="0" t="n">
@@ -3627,16 +3627,16 @@
       <c r="B92" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E92" s="0" t="n">
+      <c r="C92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="4" t="s">
         <v>199</v>
       </c>
       <c r="G92" s="0" t="n">
@@ -3653,16 +3653,16 @@
       <c r="B93" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E93" s="0" t="n">
+      <c r="C93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G93" s="0" t="n">
@@ -3679,16 +3679,16 @@
       <c r="B94" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" s="0" t="n">
+      <c r="C94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G94" s="0" t="n">
@@ -3705,16 +3705,16 @@
       <c r="B95" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E95" s="0" t="n">
+      <c r="C95" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="4" t="s">
         <v>205</v>
       </c>
       <c r="G95" s="0" t="n">
@@ -3731,16 +3731,16 @@
       <c r="B96" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="C96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>207</v>
       </c>
       <c r="G96" s="0" t="n">
@@ -3757,13 +3757,13 @@
       <c r="B97" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E97" s="0" t="n">
+      <c r="C97" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" s="4" t="n">
         <v>90</v>
       </c>
       <c r="G97" s="0" t="n">
@@ -3780,16 +3780,16 @@
       <c r="B98" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E98" s="0" t="n">
+      <c r="C98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G98" s="0" t="n">
@@ -3806,16 +3806,16 @@
       <c r="B99" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E99" s="0" t="n">
+      <c r="C99" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="4" t="s">
         <v>212</v>
       </c>
       <c r="G99" s="0" t="n">
@@ -3832,16 +3832,16 @@
       <c r="B100" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E100" s="0" t="n">
+      <c r="C100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="4" t="s">
         <v>214</v>
       </c>
       <c r="G100" s="0" t="n">
@@ -3858,16 +3858,16 @@
       <c r="B101" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E101" s="0" t="n">
+      <c r="C101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G101" s="0" t="n">
@@ -3884,16 +3884,16 @@
       <c r="B102" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E102" s="0" t="n">
+      <c r="C102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="4" t="s">
         <v>218</v>
       </c>
       <c r="G102" s="0" t="n">
@@ -3910,16 +3910,16 @@
       <c r="B103" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E103" s="0" t="n">
+      <c r="C103" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="4" t="s">
         <v>220</v>
       </c>
       <c r="G103" s="0" t="n">
@@ -3936,16 +3936,16 @@
       <c r="B104" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E104" s="0" t="n">
+      <c r="C104" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="4" t="s">
         <v>222</v>
       </c>
       <c r="G104" s="0" t="n">
@@ -3962,16 +3962,16 @@
       <c r="B105" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E105" s="0" t="n">
+      <c r="C105" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G105" s="0" t="n">
@@ -3988,16 +3988,16 @@
       <c r="B106" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E106" s="0" t="n">
+      <c r="C106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="4" t="s">
         <v>226</v>
       </c>
       <c r="G106" s="0" t="n">
@@ -4014,16 +4014,16 @@
       <c r="B107" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" s="0" t="n">
+      <c r="C107" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="4" t="s">
         <v>228</v>
       </c>
       <c r="G107" s="0" t="n">
@@ -4040,16 +4040,16 @@
       <c r="B108" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E108" s="0" t="n">
+      <c r="C108" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="4" t="s">
         <v>230</v>
       </c>
       <c r="G108" s="0" t="n">
@@ -4066,16 +4066,16 @@
       <c r="B109" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E109" s="0" t="n">
+      <c r="C109" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G109" s="0" t="n">
@@ -4092,16 +4092,16 @@
       <c r="B110" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E110" s="0" t="n">
+      <c r="C110" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="4" t="s">
         <v>234</v>
       </c>
       <c r="G110" s="0" t="n">
@@ -4118,16 +4118,16 @@
       <c r="B111" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D111" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E111" s="0" t="n">
+      <c r="C111" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="4" t="s">
         <v>236</v>
       </c>
       <c r="G111" s="0" t="n">
@@ -4144,16 +4144,16 @@
       <c r="B112" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E112" s="0" t="n">
+      <c r="C112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E112" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G112" s="0" t="n">
@@ -4170,16 +4170,16 @@
       <c r="B113" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E113" s="0" t="n">
+      <c r="C113" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G113" s="0" t="n">
@@ -4196,16 +4196,16 @@
       <c r="B114" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E114" s="0" t="n">
+      <c r="C114" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="4" t="s">
         <v>242</v>
       </c>
       <c r="G114" s="0" t="n">
@@ -4222,16 +4222,16 @@
       <c r="B115" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E115" s="0" t="n">
+      <c r="C115" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" s="4" t="s">
         <v>244</v>
       </c>
       <c r="G115" s="0" t="n">
@@ -4248,16 +4248,16 @@
       <c r="B116" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E116" s="0" t="n">
+      <c r="C116" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E116" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="4" t="s">
         <v>246</v>
       </c>
       <c r="G116" s="0" t="n">
@@ -4274,16 +4274,16 @@
       <c r="B117" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D117" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" s="0" t="n">
+      <c r="C117" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G117" s="0" t="n">
@@ -4300,16 +4300,16 @@
       <c r="B118" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D118" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E118" s="0" t="n">
+      <c r="C118" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G118" s="0" t="n">
@@ -4326,16 +4326,16 @@
       <c r="B119" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D119" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E119" s="0" t="n">
+      <c r="C119" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E119" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="4" t="s">
         <v>252</v>
       </c>
       <c r="G119" s="0" t="n">
@@ -4352,16 +4352,16 @@
       <c r="B120" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E120" s="0" t="n">
+      <c r="C120" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" s="4" t="s">
         <v>254</v>
       </c>
       <c r="G120" s="0" t="n">
@@ -4378,16 +4378,16 @@
       <c r="B121" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E121" s="0" t="n">
+      <c r="C121" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E121" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" s="4" t="s">
         <v>256</v>
       </c>
       <c r="G121" s="0" t="n">
@@ -4404,16 +4404,16 @@
       <c r="B122" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D122" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E122" s="0" t="n">
+      <c r="C122" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E122" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="4" t="s">
         <v>258</v>
       </c>
       <c r="G122" s="0" t="n">
@@ -4430,16 +4430,16 @@
       <c r="B123" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D123" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E123" s="0" t="n">
+      <c r="C123" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E123" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" s="4" t="s">
         <v>260</v>
       </c>
       <c r="G123" s="0" t="n">
@@ -4456,16 +4456,16 @@
       <c r="B124" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E124" s="0" t="n">
+      <c r="C124" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" s="4" t="s">
         <v>262</v>
       </c>
       <c r="G124" s="0" t="n">
@@ -4482,16 +4482,16 @@
       <c r="B125" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E125" s="0" t="n">
+      <c r="C125" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G125" s="0" t="n">
@@ -4508,16 +4508,16 @@
       <c r="B126" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E126" s="0" t="n">
+      <c r="C126" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E126" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" s="4" t="s">
         <v>266</v>
       </c>
       <c r="G126" s="0" t="n">
@@ -4534,16 +4534,16 @@
       <c r="B127" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D127" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E127" s="0" t="n">
+      <c r="C127" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E127" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G127" s="0" t="n">
@@ -4560,16 +4560,16 @@
       <c r="B128" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" s="0" t="n">
+      <c r="C128" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G128" s="0" t="n">
@@ -4586,16 +4586,16 @@
       <c r="B129" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E129" s="0" t="n">
+      <c r="C129" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G129" s="0" t="n">
@@ -4612,16 +4612,16 @@
       <c r="B130" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E130" s="0" t="n">
+      <c r="C130" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F130" s="4" t="s">
         <v>274</v>
       </c>
       <c r="G130" s="0" t="n">
@@ -4638,16 +4638,16 @@
       <c r="B131" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" s="4" t="s">
         <v>277</v>
       </c>
       <c r="G131" s="0" t="n">
@@ -4664,16 +4664,16 @@
       <c r="B132" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" s="4" t="s">
         <v>279</v>
       </c>
       <c r="G132" s="0" t="n">
@@ -4690,16 +4690,16 @@
       <c r="B133" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E133" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F133" s="0" t="n">
+      <c r="E133" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F133" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G133" s="0" t="n">
@@ -4716,16 +4716,16 @@
       <c r="B134" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" s="4" t="s">
         <v>282</v>
       </c>
       <c r="G134" s="0" t="n">
@@ -4742,16 +4742,16 @@
       <c r="B135" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G135" s="0" t="n">
@@ -4768,16 +4768,16 @@
       <c r="B136" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G136" s="0" t="n">
@@ -4794,16 +4794,16 @@
       <c r="B137" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G137" s="0" t="n">
@@ -4820,16 +4820,16 @@
       <c r="B138" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E138" s="0" t="n">
+      <c r="D138" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G138" s="0" t="n">
@@ -4846,16 +4846,16 @@
       <c r="B139" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" s="0" t="n">
+      <c r="D139" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F139" s="0" t="s">
+      <c r="F139" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G139" s="0" t="n">
@@ -4872,16 +4872,16 @@
       <c r="B140" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D140" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E140" s="0" t="n">
+      <c r="D140" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E140" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="4" t="n">
         <v>48</v>
       </c>
       <c r="G140" s="0" t="n">
@@ -4898,16 +4898,16 @@
       <c r="B141" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D141" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F141" s="0" t="n">
+      <c r="D141" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F141" s="4" t="n">
         <v>54</v>
       </c>
       <c r="G141" s="0" t="n">
@@ -4924,16 +4924,16 @@
       <c r="B142" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D142" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E142" s="0" t="n">
+      <c r="D142" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E142" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G142" s="0" t="n">
@@ -4950,16 +4950,16 @@
       <c r="B143" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E143" s="0" t="n">
+      <c r="D143" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E143" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" s="4" t="s">
         <v>295</v>
       </c>
       <c r="G143" s="0" t="n">
@@ -4976,16 +4976,16 @@
       <c r="B144" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E144" s="0" t="n">
+      <c r="D144" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E144" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G144" s="0" t="n">
@@ -5002,16 +5002,16 @@
       <c r="B145" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G145" s="0" t="n">
@@ -5028,16 +5028,16 @@
       <c r="B146" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="F146" s="4" t="s">
         <v>301</v>
       </c>
       <c r="G146" s="0" t="n">
@@ -5054,16 +5054,16 @@
       <c r="B147" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F147" s="0" t="s">
+      <c r="E147" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>282</v>
       </c>
       <c r="G147" s="0" t="n">
@@ -5080,16 +5080,16 @@
       <c r="B148" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="F148" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G148" s="0" t="n">
@@ -5106,16 +5106,16 @@
       <c r="B149" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="0" t="n">
@@ -5132,16 +5132,16 @@
       <c r="B150" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E150" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F150" s="0" t="n">
+      <c r="E150" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F150" s="4" t="n">
         <v>48</v>
       </c>
       <c r="G150" s="0" t="n">
@@ -5158,16 +5158,16 @@
       <c r="B151" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F151" s="0" t="n">
+      <c r="D151" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" s="4" t="n">
         <v>54</v>
       </c>
       <c r="G151" s="0" t="n">
@@ -5184,16 +5184,16 @@
       <c r="B152" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D152" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E152" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F152" s="0" t="s">
+      <c r="D152" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G152" s="0" t="n">
@@ -5210,16 +5210,16 @@
       <c r="B153" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D153" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E153" s="0" t="n">
+      <c r="D153" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E153" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F153" s="0" t="s">
+      <c r="F153" s="4" t="s">
         <v>309</v>
       </c>
       <c r="G153" s="0" t="n">
@@ -5236,16 +5236,16 @@
       <c r="B154" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D154" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E154" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F154" s="0" t="n">
+      <c r="D154" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F154" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G154" s="0" t="n">
@@ -5262,16 +5262,16 @@
       <c r="B155" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D155" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E155" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F155" s="0" t="s">
+      <c r="D155" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G155" s="0" t="n">
@@ -5288,16 +5288,16 @@
       <c r="B156" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D156" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E156" s="0" t="n">
+      <c r="D156" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E156" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G156" s="0" t="n">
@@ -5314,16 +5314,16 @@
       <c r="B157" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D157" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E157" s="0" t="n">
+      <c r="D157" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F157" s="0" t="s">
+      <c r="F157" s="4" t="s">
         <v>282</v>
       </c>
       <c r="G157" s="0" t="n">
@@ -5340,16 +5340,16 @@
       <c r="B158" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D158" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E158" s="0" t="n">
+      <c r="D158" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E158" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G158" s="0" t="n">
@@ -5366,16 +5366,16 @@
       <c r="B159" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D159" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F159" s="0" t="n">
+      <c r="D159" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F159" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G159" s="0" t="n">
@@ -5392,16 +5392,16 @@
       <c r="B160" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G160" s="0" t="n">
@@ -5418,16 +5418,16 @@
       <c r="B161" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G161" s="0" t="n">
@@ -5444,16 +5444,16 @@
       <c r="B162" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D162" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E162" s="0" t="n">
+      <c r="D162" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E162" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="4" t="s">
         <v>322</v>
       </c>
       <c r="G162" s="0" t="n">
@@ -5470,13 +5470,13 @@
       <c r="B163" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D163" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E163" s="0" t="n">
+      <c r="D163" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E163" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G163" s="0" t="n">
@@ -5493,13 +5493,13 @@
       <c r="B164" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="E164" s="0" t="n">
+      <c r="E164" s="4" t="n">
         <v>25</v>
       </c>
       <c r="G164" s="0" t="n">
@@ -5516,16 +5516,16 @@
       <c r="B165" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="F165" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G165" s="0" t="n">
@@ -5542,16 +5542,16 @@
       <c r="B166" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F166" s="0" t="s">
+      <c r="F166" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G166" s="0" t="n">
@@ -5568,16 +5568,16 @@
       <c r="B167" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F167" s="0" t="s">
+      <c r="F167" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G167" s="0" t="n">
@@ -5594,13 +5594,13 @@
       <c r="B168" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168" s="4" t="n">
         <v>13</v>
       </c>
       <c r="G168" s="0" t="n">
@@ -5617,16 +5617,16 @@
       <c r="B169" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G169" s="0" t="n">
@@ -5643,16 +5643,16 @@
       <c r="B170" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G170" s="0" t="n">
@@ -5669,16 +5669,16 @@
       <c r="B171" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="F171" s="4" t="s">
         <v>332</v>
       </c>
       <c r="G171" s="0" t="n">
@@ -5695,16 +5695,16 @@
       <c r="B172" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="F172" s="0" t="s">
+      <c r="F172" s="4" t="s">
         <v>334</v>
       </c>
       <c r="G172" s="0" t="n">
@@ -5721,16 +5721,16 @@
       <c r="B173" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="F173" s="0" t="s">
+      <c r="F173" s="4" t="s">
         <v>336</v>
       </c>
       <c r="G173" s="0" t="n">
@@ -5743,7 +5743,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
